--- a/Report/Hackathon Report Charts.xlsx
+++ b/Report/Hackathon Report Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\AIDOaRt\00 - Hackathon PAPER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\AIDOaRt-Hackathon-TOSEM\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F6AEC0-131D-4070-833C-498E3DF0F294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403A5A1C-7FE9-43D3-A762-6358EC8B4D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41388" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Hackathon" sheetId="1" r:id="rId1"/>
@@ -868,20 +868,24 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,18 +897,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1367,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1642,14 +1649,11 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -48603,8 +48607,8 @@
   </sheetPr>
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -50252,8 +50256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E354056-3904-4006-9557-3D626005AA49}">
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -50267,26 +50271,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126" t="s">
+      <c r="E1" s="127"/>
+      <c r="F1" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126" t="s">
+      <c r="G1" s="127"/>
+      <c r="H1" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126" t="s">
+      <c r="I1" s="127"/>
+      <c r="J1" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="126"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="2:16">
       <c r="B2" s="38">
@@ -50353,31 +50357,31 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126" t="s">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126" t="s">
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126" t="s">
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126" t="s">
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="38">
@@ -50687,8 +50691,8 @@
   </sheetPr>
   <dimension ref="A1:AC91"/>
   <sheetViews>
-    <sheetView topLeftCell="L8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -52345,8 +52349,8 @@
   </sheetPr>
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView topLeftCell="P17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A19"/>
+    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -54733,7 +54737,7 @@
         <v>3.6052631578947367</v>
       </c>
       <c r="AC3" s="15">
-        <f>SUM(Y3:AB3)</f>
+        <f t="shared" ref="AC3:AC16" si="1">SUM(Y3:AB3)</f>
         <v>16.131578947368421</v>
       </c>
     </row>
@@ -54766,7 +54770,7 @@
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
       <c r="N4" s="35">
-        <f t="shared" ref="N4:N15" si="1">COUNTA(H4:M4)</f>
+        <f t="shared" ref="N4:N15" si="2">COUNTA(H4:M4)</f>
         <v>0</v>
       </c>
       <c r="O4" s="7">
@@ -54810,7 +54814,7 @@
         <v>3.4571428571428573</v>
       </c>
       <c r="AC4" s="8">
-        <f>SUM(Y4:AB4)</f>
+        <f t="shared" si="1"/>
         <v>15.765546218487396</v>
       </c>
     </row>
@@ -54855,7 +54859,7 @@
         <v>35</v>
       </c>
       <c r="N5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O5" s="7">
@@ -54899,7 +54903,7 @@
         <v>3.6470588235294117</v>
       </c>
       <c r="AC5" s="8">
-        <f>SUM(Y5:AB5)</f>
+        <f t="shared" si="1"/>
         <v>15.532679738562091</v>
       </c>
     </row>
@@ -54934,7 +54938,7 @@
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O6" s="7">
@@ -54978,7 +54982,7 @@
         <v>3.3666666666666667</v>
       </c>
       <c r="AC6" s="8">
-        <f>SUM(Y6:AB6)</f>
+        <f t="shared" si="1"/>
         <v>14.883908045977012</v>
       </c>
     </row>
@@ -55017,7 +55021,7 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O7" s="7">
@@ -55061,7 +55065,7 @@
         <v>3.9090909090909092</v>
       </c>
       <c r="AC7" s="8">
-        <f>SUM(Y7:AB7)</f>
+        <f t="shared" si="1"/>
         <v>14.545454545454547</v>
       </c>
     </row>
@@ -55098,7 +55102,7 @@
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O8" s="7">
@@ -55142,7 +55146,7 @@
         <v>3.1621621621621623</v>
       </c>
       <c r="AC8" s="8">
-        <f>SUM(Y8:AB8)</f>
+        <f t="shared" si="1"/>
         <v>14.405405405405403</v>
       </c>
     </row>
@@ -55183,7 +55187,7 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O9" s="7">
@@ -55225,7 +55229,7 @@
         <v>3.1764705882352939</v>
       </c>
       <c r="AC9" s="8">
-        <f>SUM(Y9:AB9)</f>
+        <f t="shared" si="1"/>
         <v>14.323529411764707</v>
       </c>
     </row>
@@ -55264,7 +55268,7 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O10" s="7">
@@ -55308,7 +55312,7 @@
         <v>3.1428571428571428</v>
       </c>
       <c r="AC10" s="8">
-        <f>SUM(Y10:AB10)</f>
+        <f t="shared" si="1"/>
         <v>13.714285714285714</v>
       </c>
     </row>
@@ -55341,7 +55345,7 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="7">
@@ -55372,20 +55376,20 @@
       <c r="X11" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="Y11" s="128">
+      <c r="Y11" s="7">
         <v>3</v>
       </c>
-      <c r="Z11" s="128">
+      <c r="Z11" s="7">
         <v>3.9230769230769229</v>
       </c>
-      <c r="AA11" s="128">
+      <c r="AA11" s="7">
         <v>3.1538461538461537</v>
       </c>
-      <c r="AB11" s="128">
+      <c r="AB11" s="7">
         <v>3.3846153846153846</v>
       </c>
       <c r="AC11" s="8">
-        <f>SUM(Y11:AB11)</f>
+        <f t="shared" si="1"/>
         <v>13.461538461538462</v>
       </c>
     </row>
@@ -55422,7 +55426,7 @@
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O12" s="7">
@@ -55464,7 +55468,7 @@
         <v>2.9642857142857144</v>
       </c>
       <c r="AC12" s="8">
-        <f>SUM(Y12:AB12)</f>
+        <f t="shared" si="1"/>
         <v>13.321428571428573</v>
       </c>
     </row>
@@ -55499,7 +55503,7 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O13" s="7">
@@ -55541,7 +55545,7 @@
         <v>3.375</v>
       </c>
       <c r="AC13" s="8">
-        <f>SUM(Y13:AB13)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -55586,7 +55590,7 @@
         <v>24</v>
       </c>
       <c r="N14" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O14" s="7">
@@ -55628,7 +55632,7 @@
         <v>2.75</v>
       </c>
       <c r="AC14" s="8">
-        <f>SUM(Y14:AB14)</f>
+        <f t="shared" si="1"/>
         <v>12.9375</v>
       </c>
     </row>
@@ -55667,7 +55671,7 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O15" s="7">
@@ -55709,7 +55713,7 @@
         <v>3.0714285714285716</v>
       </c>
       <c r="AC15" s="8">
-        <f>SUM(Y15:AB15)</f>
+        <f t="shared" si="1"/>
         <v>12.214285714285714</v>
       </c>
     </row>
@@ -55790,7 +55794,7 @@
         <v>2.5</v>
       </c>
       <c r="AC16" s="11">
-        <f>SUM(Y16:AB16)</f>
+        <f t="shared" si="1"/>
         <v>10.833333333333334</v>
       </c>
     </row>
@@ -55814,7 +55818,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" ref="I19:I35" si="2">COUNTIF($H$3:$M$16,H19)</f>
+        <f t="shared" ref="I19:I35" si="3">COUNTIF($H$3:$M$16,H19)</f>
         <v>2</v>
       </c>
       <c r="J19" s="4"/>
@@ -55834,7 +55838,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J20" s="4"/>
@@ -55854,7 +55858,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J21" s="4"/>
@@ -55873,7 +55877,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J22" s="4"/>
@@ -55893,7 +55897,7 @@
         <v>28</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23" s="6"/>
@@ -55913,7 +55917,7 @@
         <v>32</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J24" s="4"/>
@@ -55933,7 +55937,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J25" s="4"/>
@@ -55953,7 +55957,7 @@
         <v>23</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J26" s="6"/>
@@ -55973,7 +55977,7 @@
         <v>27</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J27" s="6"/>
@@ -55992,7 +55996,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J28" s="4"/>
@@ -56012,7 +56016,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J29" s="4"/>
@@ -56032,7 +56036,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J30" s="4"/>
@@ -56052,7 +56056,7 @@
         <v>34</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J31" s="4"/>
@@ -56072,7 +56076,7 @@
         <v>35</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J32" s="4"/>
@@ -56092,7 +56096,7 @@
         <v>36</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J33" s="4"/>
@@ -56111,7 +56115,7 @@
         <v>24</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J34" s="4"/>
@@ -56131,7 +56135,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J35" s="4"/>
@@ -56366,7 +56370,7 @@
   </sheetPr>
   <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView topLeftCell="Q4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -58542,8 +58546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050FAB0C-BE03-4A96-B4DF-4A049422C564}">
   <dimension ref="B2:AE95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -61227,8 +61231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99B7B2-9A2F-4B39-BB5C-D1DFB2FFC08C}">
   <dimension ref="B2:X95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="B23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC60" sqref="AC60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -63906,7 +63910,7 @@
   </sheetPr>
   <dimension ref="B1:R64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -63930,26 +63934,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" customHeight="1">
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="127"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" customHeight="1">
       <c r="B2" s="94" t="s">
@@ -64484,31 +64488,31 @@
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="88"/>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126" t="s">
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126" t="s">
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126" t="s">
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126" t="s">
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="94" t="s">
@@ -65842,26 +65846,26 @@
     </row>
     <row r="45" spans="2:18" ht="15.75" customHeight="1">
       <c r="B45" s="81"/>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127" t="s">
+      <c r="D45" s="126"/>
+      <c r="E45" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127" t="s">
+      <c r="F45" s="126"/>
+      <c r="G45" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127" t="s">
+      <c r="H45" s="126"/>
+      <c r="I45" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127" t="s">
+      <c r="J45" s="126"/>
+      <c r="K45" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="L45" s="127"/>
+      <c r="L45" s="126"/>
     </row>
     <row r="46" spans="2:18" ht="15.75" customHeight="1">
       <c r="B46" s="81" t="s">
@@ -66569,6 +66573,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
@@ -66578,12 +66588,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
